--- a/Output/voorspelling.xlsx
+++ b/Output/voorspelling.xlsx
@@ -110,18 +110,18 @@
     <t>Oekraïne</t>
   </si>
   <si>
+    <t>Zwitserland</t>
+  </si>
+  <si>
     <t>Italië</t>
   </si>
   <si>
+    <t>Malta</t>
+  </si>
+  <si>
     <t>Frankrijk</t>
   </si>
   <si>
-    <t>Malta</t>
-  </si>
-  <si>
-    <t>Zwitserland</t>
-  </si>
-  <si>
     <t>Finland</t>
   </si>
   <si>
@@ -131,12 +131,12 @@
     <t>Portugal</t>
   </si>
   <si>
+    <t>Litouwen</t>
+  </si>
+  <si>
     <t>Cyprus</t>
   </si>
   <si>
-    <t>Litouwen</t>
-  </si>
-  <si>
     <t>Azerbeidzjan</t>
   </si>
   <si>
@@ -152,34 +152,34 @@
     <t>San Marino</t>
   </si>
   <si>
+    <t>Noorwegen</t>
+  </si>
+  <si>
     <t>Griekenland</t>
   </si>
   <si>
-    <t>Noorwegen</t>
-  </si>
-  <si>
     <t>Bulgarije</t>
   </si>
   <si>
     <t>Israël</t>
   </si>
   <si>
+    <t>Albanië</t>
+  </si>
+  <si>
+    <t>Verenigd Koninkrijk</t>
+  </si>
+  <si>
+    <t>Nederland</t>
+  </si>
+  <si>
+    <t>Moldavië</t>
+  </si>
+  <si>
     <t>België</t>
   </si>
   <si>
-    <t>Verenigd Koninkrijk</t>
-  </si>
-  <si>
     <t>Duitsland</t>
-  </si>
-  <si>
-    <t>Albanië</t>
-  </si>
-  <si>
-    <t>Nederland</t>
-  </si>
-  <si>
-    <t>Moldavië</t>
   </si>
   <si>
     <t>Spanje</t>
@@ -265,10 +265,10 @@
         <v>3.0</v>
       </c>
       <c r="E2" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="F2" t="n">
-        <v>358.775517540968</v>
+        <v>355.1800852931225</v>
       </c>
     </row>
     <row r="3">
@@ -279,16 +279,16 @@
         <v>32</v>
       </c>
       <c r="C3" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="E3" t="n">
         <v>1.0</v>
       </c>
-      <c r="D3" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>11.0</v>
-      </c>
       <c r="F3" t="n">
-        <v>323.13691809492</v>
+        <v>319.96762239375136</v>
       </c>
     </row>
     <row r="4">
@@ -299,16 +299,16 @@
         <v>33</v>
       </c>
       <c r="C4" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="D4" t="n">
-        <v>10.0</v>
+        <v>4.0</v>
       </c>
       <c r="E4" t="n">
-        <v>7.0</v>
+        <v>13.0</v>
       </c>
       <c r="F4" t="n">
-        <v>322.77066470703204</v>
+        <v>319.6204844349414</v>
       </c>
     </row>
     <row r="5">
@@ -328,7 +328,7 @@
         <v>3.0</v>
       </c>
       <c r="F5" t="n">
-        <v>319.407860052463</v>
+        <v>318.4321008773163</v>
       </c>
     </row>
     <row r="6">
@@ -339,16 +339,16 @@
         <v>35</v>
       </c>
       <c r="C6" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="D6" t="n">
-        <v>15.0</v>
+        <v>10.0</v>
       </c>
       <c r="E6" t="n">
-        <v>2.0</v>
+        <v>8.0</v>
       </c>
       <c r="F6" t="n">
-        <v>316.3181068065775</v>
+        <v>318.40560287917674</v>
       </c>
     </row>
     <row r="7">
@@ -365,10 +365,10 @@
         <v>9.0</v>
       </c>
       <c r="E7" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="F7" t="n">
-        <v>269.9779611439076</v>
+        <v>275.3808077922835</v>
       </c>
     </row>
     <row r="8">
@@ -385,10 +385,10 @@
         <v>12.0</v>
       </c>
       <c r="E8" t="n">
-        <v>13.0</v>
+        <v>11.0</v>
       </c>
       <c r="F8" t="n">
-        <v>246.1805793603868</v>
+        <v>250.64948253141742</v>
       </c>
     </row>
     <row r="9">
@@ -405,10 +405,10 @@
         <v>18.0</v>
       </c>
       <c r="E9" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="F9" t="n">
-        <v>240.90704716604066</v>
+        <v>239.46845197491857</v>
       </c>
     </row>
     <row r="10">
@@ -419,16 +419,16 @@
         <v>39</v>
       </c>
       <c r="C10" t="n">
-        <v>12.0</v>
+        <v>11.0</v>
       </c>
       <c r="D10" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="E10" t="n">
         <v>7.0</v>
       </c>
-      <c r="E10" t="n">
-        <v>10.0</v>
-      </c>
       <c r="F10" t="n">
-        <v>202.807187297811</v>
+        <v>202.01048189642867</v>
       </c>
     </row>
     <row r="11">
@@ -439,16 +439,16 @@
         <v>40</v>
       </c>
       <c r="C11" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="D11" t="n">
-        <v>17.0</v>
+        <v>7.0</v>
       </c>
       <c r="E11" t="n">
-        <v>8.0</v>
+        <v>12.0</v>
       </c>
       <c r="F11" t="n">
-        <v>202.69532461935833</v>
+        <v>199.40199279976594</v>
       </c>
     </row>
     <row r="12">
@@ -459,7 +459,7 @@
         <v>41</v>
       </c>
       <c r="C12" t="n">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="D12" t="n">
         <v>6.0</v>
@@ -468,7 +468,7 @@
         <v>6.0</v>
       </c>
       <c r="F12" t="n">
-        <v>196.844177981372</v>
+        <v>182.07365794642195</v>
       </c>
     </row>
     <row r="13">
@@ -488,7 +488,7 @@
         <v>9.0</v>
       </c>
       <c r="F13" t="n">
-        <v>184.8605145102148</v>
+        <v>180.60434041339485</v>
       </c>
     </row>
     <row r="14">
@@ -499,7 +499,7 @@
         <v>43</v>
       </c>
       <c r="C14" t="n">
-        <v>18.0</v>
+        <v>17.0</v>
       </c>
       <c r="D14" t="n">
         <v>1.0</v>
@@ -508,7 +508,7 @@
         <v>23.0</v>
       </c>
       <c r="F14" t="n">
-        <v>176.3665650152911</v>
+        <v>180.12356956856064</v>
       </c>
     </row>
     <row r="15">
@@ -519,16 +519,16 @@
         <v>44</v>
       </c>
       <c r="C15" t="n">
-        <v>15.0</v>
+        <v>14.0</v>
       </c>
       <c r="D15" t="n">
         <v>2.0</v>
       </c>
       <c r="E15" t="n">
-        <v>19.0</v>
+        <v>18.0</v>
       </c>
       <c r="F15" t="n">
-        <v>174.7983512288364</v>
+        <v>176.55446750071684</v>
       </c>
     </row>
     <row r="16">
@@ -545,10 +545,10 @@
         <v>19.0</v>
       </c>
       <c r="E16" t="n">
-        <v>15.0</v>
+        <v>14.0</v>
       </c>
       <c r="F16" t="n">
-        <v>166.39576049384527</v>
+        <v>170.16764341758704</v>
       </c>
     </row>
     <row r="17">
@@ -559,16 +559,16 @@
         <v>46</v>
       </c>
       <c r="C17" t="n">
-        <v>14.0</v>
+        <v>16.0</v>
       </c>
       <c r="D17" t="n">
-        <v>4.0</v>
+        <v>21.0</v>
       </c>
       <c r="E17" t="n">
-        <v>14.0</v>
+        <v>10.0</v>
       </c>
       <c r="F17" t="n">
-        <v>147.97401745943074</v>
+        <v>146.52281272865233</v>
       </c>
     </row>
     <row r="18">
@@ -579,16 +579,16 @@
         <v>47</v>
       </c>
       <c r="C18" t="n">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="D18" t="n">
-        <v>21.0</v>
+        <v>5.0</v>
       </c>
       <c r="E18" t="n">
-        <v>12.0</v>
+        <v>15.0</v>
       </c>
       <c r="F18" t="n">
-        <v>142.0032161482512</v>
+        <v>141.46674044706134</v>
       </c>
     </row>
     <row r="19">
@@ -608,7 +608,7 @@
         <v>23.0</v>
       </c>
       <c r="F19" t="n">
-        <v>139.08506429826937</v>
+        <v>140.01678243997506</v>
       </c>
     </row>
     <row r="20">
@@ -622,13 +622,13 @@
         <v>19.0</v>
       </c>
       <c r="D20" t="n">
-        <v>13.0</v>
+        <v>15.0</v>
       </c>
       <c r="E20" t="n">
-        <v>17.0</v>
+        <v>16.0</v>
       </c>
       <c r="F20" t="n">
-        <v>85.61246234284069</v>
+        <v>92.59194159229388</v>
       </c>
     </row>
     <row r="21">
@@ -639,16 +639,16 @@
         <v>50</v>
       </c>
       <c r="C21" t="n">
-        <v>22.0</v>
+        <v>25.0</v>
       </c>
       <c r="D21" t="n">
-        <v>22.0</v>
+        <v>8.0</v>
       </c>
       <c r="E21" t="n">
-        <v>18.0</v>
+        <v>23.0</v>
       </c>
       <c r="F21" t="n">
-        <v>47.47569605686453</v>
+        <v>48.60417613539888</v>
       </c>
     </row>
     <row r="22">
@@ -668,7 +668,7 @@
         <v>20.0</v>
       </c>
       <c r="F22" t="n">
-        <v>47.26318708826133</v>
+        <v>48.51456844761464</v>
       </c>
     </row>
     <row r="23">
@@ -679,16 +679,16 @@
         <v>52</v>
       </c>
       <c r="C23" t="n">
-        <v>24.0</v>
+        <v>21.0</v>
       </c>
       <c r="D23" t="n">
-        <v>23.0</v>
+        <v>26.0</v>
       </c>
       <c r="E23" t="n">
-        <v>16.0</v>
+        <v>20.0</v>
       </c>
       <c r="F23" t="n">
-        <v>46.34397036890706</v>
+        <v>47.57011424252189</v>
       </c>
     </row>
     <row r="24">
@@ -699,16 +699,16 @@
         <v>53</v>
       </c>
       <c r="C24" t="n">
-        <v>25.0</v>
+        <v>22.0</v>
       </c>
       <c r="D24" t="n">
-        <v>8.0</v>
+        <v>16.0</v>
       </c>
       <c r="E24" t="n">
         <v>23.0</v>
       </c>
       <c r="F24" t="n">
-        <v>46.007014779659684</v>
+        <v>46.17396238577659</v>
       </c>
     </row>
     <row r="25">
@@ -719,16 +719,16 @@
         <v>54</v>
       </c>
       <c r="C25" t="n">
-        <v>21.0</v>
+        <v>23.0</v>
       </c>
       <c r="D25" t="n">
-        <v>26.0</v>
+        <v>22.0</v>
       </c>
       <c r="E25" t="n">
-        <v>20.0</v>
+        <v>19.0</v>
       </c>
       <c r="F25" t="n">
-        <v>42.757283468420695</v>
+        <v>44.789915166349346</v>
       </c>
     </row>
     <row r="26">
@@ -739,16 +739,16 @@
         <v>55</v>
       </c>
       <c r="C26" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="D26" t="n">
         <v>23.0</v>
       </c>
-      <c r="D26" t="n">
-        <v>16.0</v>
-      </c>
       <c r="E26" t="n">
-        <v>23.0</v>
+        <v>17.0</v>
       </c>
       <c r="F26" t="n">
-        <v>42.53854381654322</v>
+        <v>42.4075474363463</v>
       </c>
     </row>
     <row r="27">
@@ -768,7 +768,7 @@
         <v>22.0</v>
       </c>
       <c r="F27" t="n">
-        <v>34.69700815352684</v>
+        <v>37.30064725820583</v>
       </c>
     </row>
   </sheetData>
